--- a/Visuals/Tabulka OOHDM.xlsx
+++ b/Visuals/Tabulka OOHDM.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomco\Documents\Predmety VŠ\Metódy Inžinierskej práce\Článok\Visuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB5409E-B1FB-4F27-9235-26EA754B733E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5CA023-054B-4902-BB97-87A7B539A83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="2148" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1128" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -73,7 +82,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Overenie vstupov </t>
+      <t xml:space="preserve">Vyobrazenie informácií </t>
     </r>
     <r>
       <rPr>
@@ -90,7 +99,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Vyobrazenie informácií </t>
+      <t xml:space="preserve">Postupnosť operácií </t>
     </r>
     <r>
       <rPr>
@@ -107,7 +116,24 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Postupnosť operácií </t>
+      <t xml:space="preserve">Dátové entity          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Navigácia k informáciám </t>
     </r>
     <r>
       <rPr>
@@ -124,24 +150,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Dátové entity          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Navigácia k informáciám </t>
+      <t xml:space="preserve">Vzťahy medzi vstupmi a výstupmi </t>
     </r>
     <r>
       <rPr>
@@ -158,7 +167,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Vzťahy medzi vstupmi a výstupmi </t>
+      <t xml:space="preserve">Funkčnosť a informácie </t>
     </r>
     <r>
       <rPr>
@@ -174,8 +183,34 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Funkčnosť a informácie </t>
+    <t>✓✓ - Podporované</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X - Nepodporované</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prístup k dátam               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>✓</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> ✓ - Čiastočne podporované</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Overenie vstupov     </t>
     </r>
     <r>
       <rPr>
@@ -189,32 +224,6 @@
       </rPr>
       <t>✓✓</t>
     </r>
-  </si>
-  <si>
-    <t>✓✓ - Podporované</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X - Nepodporované</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Prístup k dátam               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>✓</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> ✓ - Čiastočne podporované</t>
   </si>
 </sst>
 </file>
@@ -812,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,6 +830,9 @@
     <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" customWidth="1"/>
+    <col min="15" max="15" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:14" x14ac:dyDescent="0.3">
@@ -942,8 +954,6 @@
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
@@ -996,18 +1006,17 @@
       <c r="F13" s="2"/>
       <c r="G13" s="14"/>
       <c r="H13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>16</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="3:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
@@ -1016,18 +1025,17 @@
       <c r="F14" s="2"/>
       <c r="G14" s="16"/>
       <c r="H14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="J14" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="3:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
@@ -1036,33 +1044,32 @@
       <c r="F15" s="2"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>9</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="3:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" s="27"/>
       <c r="L16" s="2"/>
@@ -1299,5 +1306,6 @@
     <mergeCell ref="J16:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>